--- a/TOPOKKI_APP/OutputFile/BaoCao_Thang_1_2025.xlsx
+++ b/TOPOKKI_APP/OutputFile/BaoCao_Thang_1_2025.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Doanh thu tháng 1/2025</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>Bàn 17</t>
+  </si>
+  <si>
+    <t>Bàn 13</t>
+  </si>
+  <si>
+    <t>11/01/2025</t>
+  </si>
+  <si>
+    <t>Bàn 18</t>
   </si>
 </sst>
 </file>
@@ -140,7 +149,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -176,7 +185,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="5">
-        <v>2340000</v>
+        <v>3300000</v>
       </c>
     </row>
     <row r="4">
@@ -345,6 +354,118 @@
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="0">
+        <v>120000</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0">
+        <v>120000</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="0">
+        <v>120000</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="0">
+        <v>120000</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="0">
+        <v>120000</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="0">
+        <v>120000</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0">
+        <v>120000</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="0">
+        <v>120000</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
